--- a/UAK_2/чертежи/UAK_2B ПЭ.xlsx
+++ b/UAK_2/чертежи/UAK_2B ПЭ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Toxa/UAK/UAK_2/чертежи/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t xml:space="preserve">    A1</t>
   </si>
@@ -243,6 +251,15 @@
   </si>
   <si>
     <t>Резистор подстроечный</t>
+  </si>
+  <si>
+    <t>на 50 шт.</t>
+  </si>
+  <si>
+    <t>запас</t>
+  </si>
+  <si>
+    <t>итого</t>
   </si>
 </sst>
 </file>
@@ -300,7 +317,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +327,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,16 +359,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -341,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,9 +413,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,9 +420,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -694,29 +741,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F33" sqref="A1:F33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="C1" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>71</v>
       </c>
@@ -735,8 +782,17 @@
       <c r="F2" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -755,111 +811,174 @@
       <c r="F3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="H3">
+        <f>D3*50</f>
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="18">
+        <f>H3+I3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H33" si="0">D4*50</f>
+        <v>50</v>
+      </c>
+      <c r="I4" s="16">
+        <v>5</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" ref="J4:J33" si="1">H4+I4</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>5</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="E5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="I5" s="16">
+        <v>30</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I6" s="16">
+        <v>10</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>6</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="E7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I7" s="16">
+        <v>30</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>2</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I8" s="16">
+        <v>10</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -878,11 +997,17 @@
       <c r="F9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="24">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -901,51 +1026,81 @@
       <c r="F10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I11" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="J11" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I12" s="16">
+        <v>5</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -964,35 +1119,57 @@
       <c r="F13" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I14" s="16">
+        <v>2</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="10">
@@ -1004,8 +1181,19 @@
       <c r="F15" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I15" s="16">
+        <v>2</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1024,28 +1212,50 @@
       <c r="F16" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I16" s="16">
+        <v>5</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="16">
-        <v>1</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I17" s="16">
+        <v>5</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1064,188 +1274,295 @@
       <c r="F18" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="E19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="I19" s="16">
+        <v>50</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>8</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="E20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I20" s="16">
+        <v>40</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I21" s="16">
+        <v>10</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I22" s="16">
+        <v>10</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>2</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="E23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I23" s="16">
+        <v>10</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="16">
-        <v>1</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+      <c r="D24" s="20">
+        <v>1</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>2</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="E25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I25" s="16">
+        <v>5</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="16">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I26" s="16">
+        <v>10</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>4</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I27" s="16">
+        <v>10</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -1264,8 +1581,19 @@
       <c r="F28" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I28" s="3">
+        <v>5</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1284,28 +1612,47 @@
       <c r="F29" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="D30" s="20">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -1324,8 +1671,19 @@
       <c r="F31" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -1344,8 +1702,19 @@
       <c r="F32" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5</v>
+      </c>
+      <c r="J32" s="18">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -1364,15 +1733,26 @@
       <c r="F33" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="I33" s="3">
+        <v>10</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1390,7 +1770,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1402,7 +1782,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
